--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>643103.9392868346</v>
+        <v>703811.9251730636</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335414.3901624706</v>
+        <v>337002.2430554234</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10905804.67830212</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8243252.136356127</v>
+        <v>8222662.983689152</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
+      <c r="G2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>29.79900896488251</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,10 +800,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>204.7452777895381</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>230.9755459965885</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>82.46119763909351</v>
       </c>
       <c r="G5" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>209.9064962068211</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>60.65319430407657</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -989,16 +989,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>105.4958404977308</v>
       </c>
     </row>
     <row r="7">
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>137.0815656650981</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>200.4690277542072</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>50.40736684646109</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="10">
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>237.7281468709362</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>113.2788623889627</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.915442650592</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>37.06893718631116</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>157.7061603512636</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1767,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.3364906735232</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>134.474410193991</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>132.2588017929106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -2004,13 +2004,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>205.1478855987997</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>234.2559520454602</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>81.43080291134243</v>
       </c>
       <c r="C20" t="n">
-        <v>62.45253193132584</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686246</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.938553216411962</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2326,10 +2326,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>332.9785340174583</v>
+        <v>213.7666797637914</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,7 +2411,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H24" t="n">
         <v>104.3883541553076</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>67.24036028042107</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>217.5685802194609</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>12.92673310808092</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>232.3056710074058</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>255.244291151345</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>275.4805812731079</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I30" t="n">
         <v>61.42221998250818</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>62.95369569505497</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>312.4827384737557</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3046,7 +3046,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>162.8578634232117</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>146.6850513083904</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>201.0891638436807</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,19 +3268,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>221.0021786982965</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>30.95117253761778</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,16 +3480,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>174.8813118982897</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>369.1693311547418</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,13 +3562,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>236.7324605541038</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>59.72683757586862</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>208.2793294336578</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>201.3867094099834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>165.0933990595038</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>51.87721125827391</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.0992346450739</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>47.40419526769224</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>111.5804705304104</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>43.8374309337276</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>155.4526127311941</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>315.6850394389064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C2" t="n">
-        <v>72.23626279480629</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D2" t="n">
-        <v>72.23626279480629</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4415,16 +4415,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,22 +4433,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>933.9571464551993</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>933.9571464551993</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>705.7335281915883</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V3" t="n">
-        <v>470.5814199598456</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W3" t="n">
-        <v>227.1326433157456</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
         <v>19.28114311021272</v>
@@ -4521,10 +4521,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>736.461710075982</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="C5" t="n">
-        <v>736.461710075982</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="D5" t="n">
-        <v>736.461710075982</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="E5" t="n">
-        <v>736.461710075982</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F5" t="n">
-        <v>736.461710075982</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>489.428647084929</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>242.3955840938761</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>30.36882024860222</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>969.7703423957684</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>969.7703423957684</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>969.7703423957684</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>969.7703423957684</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U5" t="n">
-        <v>969.7703423957684</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V5" t="n">
-        <v>969.7703423957684</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W5" t="n">
-        <v>969.7703423957684</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X5" t="n">
-        <v>969.7703423957684</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y5" t="n">
-        <v>969.7703423957684</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>877.5769898880284</v>
+        <v>588.1108339952409</v>
       </c>
       <c r="C6" t="n">
-        <v>816.3111370556278</v>
+        <v>588.1108339952409</v>
       </c>
       <c r="D6" t="n">
-        <v>667.3767273943765</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="E6" t="n">
-        <v>508.1392723889211</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F6" t="n">
-        <v>361.604714415806</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>222.8818710904709</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>109.5898257028427</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>146.1858617037014</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>377.8476075409624</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>619.9647125784934</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>862.0818176160244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>862.0818176160244</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>877.5769898880284</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>877.5769898880284</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>877.5769898880284</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>877.5769898880284</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>877.5769898880284</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>877.5769898880284</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>877.5769898880284</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.5769898880284</v>
+        <v>756.326171015309</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>158.0312465334349</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698.4535282668857</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>698.4535282668857</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>698.4535282668857</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>495.9595608383935</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>495.9595608383935</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>230.0585164427707</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>230.0585164427707</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>907.4554057415451</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>698.4535282668857</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>698.4535282668857</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U8" t="n">
-        <v>698.4535282668857</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V8" t="n">
-        <v>698.4535282668857</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W8" t="n">
-        <v>698.4535282668857</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X8" t="n">
-        <v>698.4535282668857</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y8" t="n">
-        <v>698.4535282668857</v>
+        <v>358.0940480307835</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>395.3633338266541</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>220.9103045455271</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>71.97589488427585</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>154.3302328992135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>394.933760794076</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>394.933760794076</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>524.903632156528</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>785.3166962490201</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>977.3180709271187</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>1052.968135806666</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>817.8160275749237</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>563.5786708467222</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>563.5786708467222</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>563.5786708467222</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1036.358670716696</v>
+        <v>1645.450628940881</v>
       </c>
       <c r="C11" t="n">
-        <v>1036.358670716696</v>
+        <v>1276.48811200047</v>
       </c>
       <c r="D11" t="n">
         <v>1036.358670716696</v>
@@ -5041,19 +5041,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5065,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.752638628377</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V11" t="n">
-        <v>1893.689751284806</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W11" t="n">
-        <v>1540.921096014692</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X11" t="n">
-        <v>1426.498002692507</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="Y11" t="n">
-        <v>1036.358670716696</v>
+        <v>1645.450628940881</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5126,19 +5126,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
         <v>53.94298182036445</v>
@@ -5232,19 +5232,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1199.13500546934</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C14" t="n">
-        <v>830.1724885289281</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D14" t="n">
-        <v>471.9067899221776</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E14" t="n">
-        <v>471.9067899221776</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>2659.705720122958</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V14" t="n">
-        <v>2328.642832779387</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W14" t="n">
-        <v>1975.874177509273</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X14" t="n">
-        <v>1975.874177509273</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y14" t="n">
-        <v>1585.734845533462</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036444</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036444</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036444</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5463,25 +5463,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>564.1527310008552</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1738.389234072494</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C17" t="n">
-        <v>1369.426717132083</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D17" t="n">
-        <v>1011.161018525332</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E17" t="n">
-        <v>625.3727659270879</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
         <v>625.3727659270879</v>
@@ -5512,55 +5512,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V17" t="n">
-        <v>2224.752638628377</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W17" t="n">
-        <v>1871.983983358263</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="X17" t="n">
-        <v>1871.983983358263</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y17" t="n">
-        <v>1738.389234072494</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5682,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T19" t="n">
-        <v>579.9823256406182</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="U19" t="n">
-        <v>579.9823256406182</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>688.4561315142857</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C20" t="n">
-        <v>625.3727659270879</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D20" t="n">
-        <v>625.3727659270879</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E20" t="n">
-        <v>625.3727659270879</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F20" t="n">
         <v>625.3727659270879</v>
@@ -5749,55 +5749,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U20" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V20" t="n">
-        <v>1838.661061815299</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W20" t="n">
-        <v>1838.661061815299</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="X20" t="n">
-        <v>1465.195303554219</v>
+        <v>1894.539591564835</v>
       </c>
       <c r="Y20" t="n">
-        <v>1075.055971578407</v>
+        <v>1504.400259589023</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>500.820796875036</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C22" t="n">
-        <v>500.820796875036</v>
+        <v>377.5443364482877</v>
       </c>
       <c r="D22" t="n">
-        <v>350.7041574627002</v>
+        <v>227.427697035952</v>
       </c>
       <c r="E22" t="n">
-        <v>202.7910638803071</v>
+        <v>79.51460345355886</v>
       </c>
       <c r="F22" t="n">
-        <v>55.90111638239674</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>55.90111638239674</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5919,43 +5919,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y22" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1117.513150920515</v>
+        <v>1408.083041312479</v>
       </c>
       <c r="C23" t="n">
-        <v>748.5506339801032</v>
+        <v>1039.120524372067</v>
       </c>
       <c r="D23" t="n">
-        <v>390.2849353733527</v>
+        <v>680.8548257653169</v>
       </c>
       <c r="E23" t="n">
-        <v>53.94298182036445</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
@@ -6001,40 +6001,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2465.942913862886</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U23" t="n">
-        <v>2212.181128500977</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V23" t="n">
-        <v>1881.118241157406</v>
+        <v>2147.451536646715</v>
       </c>
       <c r="W23" t="n">
-        <v>1881.118241157406</v>
+        <v>1794.682881376601</v>
       </c>
       <c r="X23" t="n">
-        <v>1507.652482896327</v>
+        <v>1794.682881376601</v>
       </c>
       <c r="Y23" t="n">
-        <v>1117.513150920515</v>
+        <v>1794.682881376601</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6065,25 +6065,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
         <v>2525.076107152626</v>
@@ -6113,7 +6113,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>149.5382038240415</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C25" t="n">
-        <v>149.5382038240415</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D25" t="n">
-        <v>149.5382038240415</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6156,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>660.2094283676252</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610022</v>
+        <v>660.2094283676252</v>
       </c>
       <c r="V25" t="n">
-        <v>438.9553738610022</v>
+        <v>660.2094283676252</v>
       </c>
       <c r="W25" t="n">
-        <v>149.5382038240415</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="X25" t="n">
-        <v>149.5382038240415</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.5382038240415</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1610.120910258947</v>
+        <v>1534.318342165211</v>
       </c>
       <c r="C26" t="n">
-        <v>1241.158393318536</v>
+        <v>1165.3558252248</v>
       </c>
       <c r="D26" t="n">
-        <v>882.8926947117852</v>
+        <v>1165.3558252248</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2684.091784848444</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2684.091784848444</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2684.091784848444</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2684.091784848444</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>2353.028897504873</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W26" t="n">
-        <v>2000.260242234759</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X26" t="n">
-        <v>2000.260242234759</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y26" t="n">
-        <v>1610.120910258947</v>
+        <v>1920.918182229333</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
         <v>309.190302261463</v>
@@ -6317,13 +6317,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6350,7 +6350,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>493.4767912696608</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>493.4767912696608</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W28" t="n">
-        <v>204.0596212327002</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X28" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1366.188433646014</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C29" t="n">
-        <v>997.225916705602</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D29" t="n">
-        <v>638.9602180988516</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="E29" t="n">
-        <v>381.1377017843616</v>
+        <v>1161.155908118965</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>750.1700033293573</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>332.2061952275442</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2092.422847177208</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>1739.654191907093</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>1366.188433646014</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1366.188433646014</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6524,10 +6524,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
         <v>359.3385232961342</v>
@@ -6542,25 +6542,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C31" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D31" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E31" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6648,25 +6648,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>222.942782082032</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>222.942782082032</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W31" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X31" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.942782082032</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>840.8693068625894</v>
+        <v>1168.064026826587</v>
       </c>
       <c r="C32" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D32" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E32" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733127</v>
@@ -6712,16 +6712,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
         <v>2642.120401548716</v>
@@ -6730,22 +6730,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2301.440021516208</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V32" t="n">
-        <v>1970.377134172637</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W32" t="n">
-        <v>1617.608478902523</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X32" t="n">
-        <v>1617.608478902523</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y32" t="n">
-        <v>1227.469146926711</v>
+        <v>1483.703156598057</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>500.139433308417</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>500.139433308417</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>350.0227938960812</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>202.1097003136881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>202.1097003136881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6867,43 +6867,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064343</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064343</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X34" t="n">
-        <v>500.139433308417</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y34" t="n">
-        <v>500.139433308417</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1166.959449965771</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C35" t="n">
-        <v>797.9969330253591</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D35" t="n">
-        <v>439.7312344186087</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
@@ -6970,19 +6970,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="V35" t="n">
-        <v>2311.057514205145</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W35" t="n">
-        <v>1958.288858935031</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X35" t="n">
-        <v>1584.823100673951</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y35" t="n">
-        <v>1553.559290029893</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7061,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7104,43 +7104,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="V37" t="n">
-        <v>438.9553738610022</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="W37" t="n">
-        <v>149.5382038240415</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>551.4811944101821</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1624.753525949916</v>
+        <v>1251.855211652197</v>
       </c>
       <c r="C38" t="n">
-        <v>1255.791009009504</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D38" t="n">
-        <v>1255.791009009504</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E38" t="n">
         <v>882.8926947117852</v>
@@ -7165,61 +7165,61 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U38" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V38" t="n">
-        <v>2388.358616186807</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W38" t="n">
-        <v>2388.358616186807</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="X38" t="n">
-        <v>2014.892857925728</v>
+        <v>1641.994543628009</v>
       </c>
       <c r="Y38" t="n">
-        <v>1624.753525949916</v>
+        <v>1251.855211652197</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7250,7 +7250,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7274,22 +7274,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>728.1289842064344</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C40" t="n">
-        <v>559.1928012785276</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D40" t="n">
-        <v>409.0761618661918</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E40" t="n">
-        <v>261.1630682837987</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F40" t="n">
-        <v>114.2731207858883</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064344</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064344</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064344</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064344</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064344</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064344</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>951.4629090302697</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C41" t="n">
-        <v>951.4629090302697</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D41" t="n">
-        <v>593.1972104235191</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E41" t="n">
-        <v>207.4089578252748</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F41" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T41" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U41" t="n">
         <v>2212.181128500977</v>
       </c>
       <c r="V41" t="n">
-        <v>1881.118241157406</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="W41" t="n">
-        <v>1528.349585887292</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X41" t="n">
-        <v>1154.883827626212</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y41" t="n">
-        <v>1154.883827626212</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>527.5811021474123</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C43" t="n">
-        <v>527.5811021474123</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D43" t="n">
-        <v>527.5811021474123</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E43" t="n">
-        <v>527.5811021474123</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F43" t="n">
-        <v>380.6911546495019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7593,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>527.5811021474123</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>527.5811021474123</v>
+        <v>222.942782082032</v>
       </c>
       <c r="V43" t="n">
-        <v>527.5811021474123</v>
+        <v>222.942782082032</v>
       </c>
       <c r="W43" t="n">
-        <v>527.5811021474123</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X43" t="n">
-        <v>527.5811021474123</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y43" t="n">
-        <v>527.5811021474123</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1309.714918859356</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C44" t="n">
-        <v>940.7524019189439</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D44" t="n">
-        <v>582.4867033121934</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>582.4867033121934</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>582.4867033121934</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7675,25 +7675,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2310.778188530465</v>
       </c>
       <c r="V44" t="n">
-        <v>1662.48357412947</v>
+        <v>1979.715301186894</v>
       </c>
       <c r="W44" t="n">
-        <v>1309.714918859356</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="X44" t="n">
-        <v>1309.714918859356</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y44" t="n">
-        <v>1309.714918859356</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7727,31 +7727,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
         <v>2488.762748073963</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>98.22321508675597</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>98.22321508675597</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V46" t="n">
-        <v>438.9553738610022</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W46" t="n">
-        <v>281.9325327183818</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036445</v>
+        <v>246.1363086691491</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8072,10 +8072,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>384.6945110063436</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N6" t="n">
-        <v>373.8491954283778</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>140.7160931202018</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>249.8079574201075</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9730561082392</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,22 +8531,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>129.5917403577181</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>249.7501596750565</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>275.0442842992669</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10667,7 +10667,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>329.5048015845142</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22603,7 +22603,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22673,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.8841621389553</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22688,10 +22688,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>46.94970537138147</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>151.7582956668921</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>324.414848102618</v>
       </c>
       <c r="G5" t="n">
-        <v>170.7252358559294</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>94.7608136808341</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>112.0553046842392</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22877,13 +22877,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,13 +22913,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1328769967189</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22931,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>100.1868552795736</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,28 +22983,28 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>149.4414326714929</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>288.3233546697745</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,22 +23029,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>181.4613423180545</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521648</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -23074,10 +23074,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>107.2377136089399</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,31 +23220,31 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
-        <v>65.87458628206221</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>116.9548947497467</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>256.4522382895063</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>162.9165375313453</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23472,10 +23472,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>214.1552303219781</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>212.0249403272055</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>49.80904827649567</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23715,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>214.766558523422</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>253.9791368631429</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,13 +23892,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>19.88721985928456</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>17.88169127836775</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>301.3030387521381</v>
       </c>
       <c r="C20" t="n">
-        <v>302.8203598396817</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,19 +24138,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>154.2323356253832</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24180,7 +24180,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,10 +24214,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>48.95183605480344</v>
+        <v>168.1636903084703</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>72.6705324754106</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24417,10 +24417,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>157.7947451776632</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>164.3617898528009</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>41.55166946673079</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24657,16 +24657,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>53.97620323457195</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>126.6860789209168</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>48.44219149124928</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>72.6705324754106</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24888,19 +24888,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>223.3281785469228</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>70.25110318972492</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24970,19 +24970,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>88.36630408507764</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>20.62475095066051</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25134,13 +25134,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>51.04847948014728</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25210,19 +25210,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>30.22198880999284</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>355.2867661184358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
@@ -25368,16 +25368,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>111.400562343688</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>131.0703856053968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>12.76103891751995</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>112.5085081633092</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>107.5829646831823</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25572,7 +25572,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>16.75577602442652</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>181.3471322534972</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>162.6588594106311</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
@@ -25833,16 +25833,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>173.1578941998104</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>11.18263959690381</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25867,25 +25867,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>366.3799747531028</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>139.6436969778789</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>123.4723713253233</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26076,19 +26076,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>131.0703856053969</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>468509.5306848606</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>484493.4921751526</v>
+        <v>465428.5179229464</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>792828.1451476631</v>
+        <v>792828.1451476632</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476632</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476628</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>792828.1451476633</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.145147663</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>792828.145147663</v>
+        <v>792828.1451476632</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>792828.1451476632</v>
+        <v>792828.1451476631</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.127997248</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
         <v>245779.7185133939</v>
@@ -26346,7 +26346,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
-        <v>245779.718513394</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133939</v>
@@ -26355,7 +26355,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753535</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835743</v>
+        <v>432846.1740429961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
-        <v>913.2558024571108</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.56311884739</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>25282.26821261927</v>
       </c>
       <c r="C4" t="n">
-        <v>25293.26066533936</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="D4" t="n">
-        <v>25338.71079138016</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="E4" t="n">
         <v>27086.83710496504</v>
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26484,28 +26484,28 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="H5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="I5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="J5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="H5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="I5" t="n">
-        <v>49231.47806340946</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="M5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>49231.47806340946</v>
-      </c>
-      <c r="N5" t="n">
-        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25314.40747633661</v>
+        <v>-14318.19791830016</v>
       </c>
       <c r="C6" t="n">
-        <v>51699.94129532467</v>
+        <v>66451.23361324753</v>
       </c>
       <c r="D6" t="n">
-        <v>37641.98612414198</v>
+        <v>66451.23361324756</v>
       </c>
       <c r="E6" t="n">
-        <v>-244327.4480843742</v>
+        <v>-263991.6120725585</v>
       </c>
       <c r="F6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="G6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="H6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="I6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="J6" t="n">
-        <v>100333.0470000939</v>
+        <v>105794.6193713313</v>
       </c>
       <c r="K6" t="n">
-        <v>162479.7337967431</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="L6" t="n">
-        <v>158665.4264803528</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="M6" t="n">
-        <v>60958.87190856516</v>
+        <v>60881.20129637932</v>
       </c>
       <c r="N6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="O6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704375</v>
       </c>
       <c r="P6" t="n">
-        <v>163392.9895992002</v>
+        <v>168854.5619704374</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26773,7 +26773,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
         <v>377.7436642170866</v>
@@ -26792,43 +26792,43 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="H4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="I4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="H4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="N4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.33951979354706</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302972</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483226</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.67930159052432</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028889</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.045238802889</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31776,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31949,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34792,10 +34792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>127.8998415301111</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>234.0017634719808</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>244.5627323611424</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>117.3425372005507</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>131.2826983459112</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.41420694903813</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
@@ -35503,13 +35503,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35740,13 +35740,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
         <v>297.2230414343419</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35977,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36135,13 +36135,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36214,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36454,7 +36454,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>296.2227415328944</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,13 +37633,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
         <v>54.37527471535621</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
